--- a/src/main/resources/excels/ArmoryModel.xlsx
+++ b/src/main/resources/excels/ArmoryModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
   <si>
     <t>种族</t>
   </si>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>类型(1兵种,2技能)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,578 +496,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="20.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>12601</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>12701</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
         <v>12901</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
         <v>13001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
         <v>13201</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
         <v>12801</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
         <v>13101</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
         <v>13301</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
         <v>14001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
         <v>14101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
         <v>22601</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
         <v>22701</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
         <v>22901</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
         <v>23001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3">
         <v>23201</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
         <v>22801</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
         <v>23101</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
         <v>23301</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
         <v>24001</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
         <v>24101</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
         <v>32601</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
         <v>32701</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3">
         <v>32901</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3">
         <v>33001</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3">
         <v>33201</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
         <v>32801</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3">
         <v>33101</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3">
         <v>33301</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
         <v>34001</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3">
         <v>34101</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>2</v>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>13401</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7">
+      <c r="D35" s="7">
         <v>13601</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7">
         <v>16301</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>2</v>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7">
         <v>16401</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>2</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7">
         <v>16501</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
-        <v>2</v>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6">
         <v>13501</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>3</v>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7">
         <v>23401</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>3</v>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7">
         <v>23601</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>3</v>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7">
         <v>26301</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>3</v>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7">
         <v>26401</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7">
         <v>26501</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>3</v>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7">
         <v>23501</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>4</v>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="7">
         <v>33401</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>4</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7">
         <v>33601</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>4</v>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="7">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="7">
         <v>36301</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>4</v>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7">
         <v>36401</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>4</v>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="7">
         <v>36501</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>4</v>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7">
         <v>33501</v>
       </c>
     </row>

--- a/src/main/resources/excels/ArmoryModel.xlsx
+++ b/src/main/resources/excels/ArmoryModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="18">
   <si>
     <t>种族</t>
   </si>
@@ -23,6 +23,10 @@
   </si>
   <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Predator</t>
@@ -50,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -76,15 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>Titan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -194,6 +194,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -254,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A51"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -511,7 +516,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -522,38 +527,38 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -567,7 +572,7 @@
         <v>12601</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -581,7 +586,7 @@
         <v>12701</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -595,7 +600,7 @@
         <v>12901</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -609,7 +614,7 @@
         <v>13001</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -623,7 +628,7 @@
         <v>13201</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -637,7 +642,7 @@
         <v>12801</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -651,7 +656,7 @@
         <v>13101</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -665,7 +670,7 @@
         <v>13301</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -679,7 +684,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -693,12 +698,12 @@
         <v>14101</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -707,12 +712,12 @@
         <v>22601</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -721,12 +726,12 @@
         <v>22701</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -735,12 +740,12 @@
         <v>22901</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -749,12 +754,12 @@
         <v>23001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
@@ -763,12 +768,12 @@
         <v>23201</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
@@ -777,12 +782,12 @@
         <v>22801</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
@@ -791,12 +796,12 @@
         <v>23101</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -805,12 +810,12 @@
         <v>23301</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
@@ -819,12 +824,12 @@
         <v>24001</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>11</v>
@@ -833,12 +838,12 @@
         <v>24101</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -847,12 +852,12 @@
         <v>32601</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>11</v>
@@ -861,12 +866,12 @@
         <v>32701</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -875,12 +880,12 @@
         <v>32901</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
@@ -889,12 +894,12 @@
         <v>33001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
@@ -903,12 +908,12 @@
         <v>33201</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>11</v>
@@ -917,12 +922,12 @@
         <v>32801</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
@@ -931,12 +936,12 @@
         <v>33101</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
@@ -945,12 +950,12 @@
         <v>33301</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
@@ -959,12 +964,12 @@
         <v>34001</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
@@ -973,7 +978,7 @@
         <v>34101</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -987,7 +992,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>13601</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>16301</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>16401</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>16501</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -1057,12 +1062,12 @@
         <v>13501</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>13</v>
@@ -1071,12 +1076,12 @@
         <v>23401</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>13</v>
@@ -1085,12 +1090,12 @@
         <v>23601</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>13</v>
@@ -1099,12 +1104,12 @@
         <v>26301</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>13</v>
@@ -1113,12 +1118,12 @@
         <v>26401</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>13</v>
@@ -1127,12 +1132,12 @@
         <v>26501</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>13</v>
@@ -1141,12 +1146,12 @@
         <v>23501</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>13</v>
@@ -1155,12 +1160,12 @@
         <v>33401</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>13</v>
@@ -1169,12 +1174,12 @@
         <v>33601</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>13</v>
@@ -1183,12 +1188,12 @@
         <v>36301</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>13</v>
@@ -1197,12 +1202,12 @@
         <v>36401</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>13</v>
@@ -1211,18 +1216,116 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="7">
         <v>33501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>62601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9">
+        <v>62701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>62801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>62901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="9">
+        <v>63001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9">
+        <v>63101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
+        <v>63201</v>
       </c>
     </row>
   </sheetData>
